--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H2">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I2">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J2">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N2">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O2">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P2">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q2">
-        <v>175.11574697127</v>
+        <v>80.74054088507874</v>
       </c>
       <c r="R2">
-        <v>700.46298788508</v>
+        <v>322.962163540315</v>
       </c>
       <c r="S2">
-        <v>0.009932272476839312</v>
+        <v>0.003324791252129182</v>
       </c>
       <c r="T2">
-        <v>0.005118461291004868</v>
+        <v>0.001650964454945135</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H3">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I3">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J3">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P3">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q3">
-        <v>356.80439258268</v>
+        <v>218.521216976335</v>
       </c>
       <c r="R3">
-        <v>2140.82635549608</v>
+        <v>1311.12730185801</v>
       </c>
       <c r="S3">
-        <v>0.02023734877849529</v>
+        <v>0.00899842164349198</v>
       </c>
       <c r="T3">
-        <v>0.0156435629303621</v>
+        <v>0.00670240918486257</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H4">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I4">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J4">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N4">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O4">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P4">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q4">
-        <v>727.6009152333199</v>
+        <v>400.0197242517558</v>
       </c>
       <c r="R4">
-        <v>4365.60549139992</v>
+        <v>2400.118345510535</v>
       </c>
       <c r="S4">
-        <v>0.04126830778776643</v>
+        <v>0.01647229589116058</v>
       </c>
       <c r="T4">
-        <v>0.03190059018963438</v>
+        <v>0.01226927028436563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H5">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I5">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J5">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N5">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O5">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P5">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q5">
-        <v>302.18260803291</v>
+        <v>199.2342330885562</v>
       </c>
       <c r="R5">
-        <v>1208.73043213164</v>
+        <v>796.936932354225</v>
       </c>
       <c r="S5">
-        <v>0.01713929245459123</v>
+        <v>0.008204208543020987</v>
       </c>
       <c r="T5">
-        <v>0.008832500838917155</v>
+        <v>0.004073896873017454</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H6">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I6">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J6">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N6">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O6">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P6">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q6">
-        <v>104.33596534178</v>
+        <v>84.2939986369975</v>
       </c>
       <c r="R6">
-        <v>626.01579205068</v>
+        <v>505.763991821985</v>
       </c>
       <c r="S6">
-        <v>0.005917761565318504</v>
+        <v>0.003471118055478273</v>
       </c>
       <c r="T6">
-        <v>0.004574456687345849</v>
+        <v>0.002585437142035455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.66862</v>
+        <v>7.1463275</v>
       </c>
       <c r="H7">
-        <v>23.33724</v>
+        <v>14.292655</v>
       </c>
       <c r="I7">
-        <v>0.1418293637844402</v>
+        <v>0.05743188076521042</v>
       </c>
       <c r="J7">
-        <v>0.1026592641785845</v>
+        <v>0.03991528974024944</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N7">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O7">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P7">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q7">
-        <v>834.55175608446</v>
+        <v>411.8887094264583</v>
       </c>
       <c r="R7">
-        <v>5007.31053650676</v>
+        <v>2471.33225655875</v>
       </c>
       <c r="S7">
-        <v>0.04733438072142944</v>
+        <v>0.01696104537992942</v>
       </c>
       <c r="T7">
-        <v>0.03658969224132019</v>
+        <v>0.01263331180102321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>45.36298</v>
       </c>
       <c r="I8">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J8">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N8">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O8">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P8">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q8">
-        <v>226.92692387911</v>
+        <v>170.8398027452567</v>
       </c>
       <c r="R8">
-        <v>1361.56154327466</v>
+        <v>1025.03881647154</v>
       </c>
       <c r="S8">
-        <v>0.01287091583298945</v>
+        <v>0.007034962553587189</v>
       </c>
       <c r="T8">
-        <v>0.009949276657163745</v>
+        <v>0.005239940903239255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>45.36298</v>
       </c>
       <c r="I9">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J9">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P9">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q9">
         <v>462.3714579399066</v>
@@ -1013,10 +1013,10 @@
         <v>4161.34312145916</v>
       </c>
       <c r="S9">
-        <v>0.02622493627900889</v>
+        <v>0.01903985979956343</v>
       </c>
       <c r="T9">
-        <v>0.03040799307624883</v>
+        <v>0.02127255249670107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>45.36298</v>
       </c>
       <c r="I10">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J10">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N10">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O10">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P10">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q10">
-        <v>942.8748719703156</v>
+        <v>846.4061552752288</v>
       </c>
       <c r="R10">
-        <v>8485.873847732841</v>
+        <v>7617.65539747706</v>
       </c>
       <c r="S10">
-        <v>0.05347828680141819</v>
+        <v>0.03485391291610036</v>
       </c>
       <c r="T10">
-        <v>0.0620084395052963</v>
+        <v>0.03894102687879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>45.36298</v>
       </c>
       <c r="I11">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J11">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N11">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O11">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P11">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q11">
-        <v>391.58882554363</v>
+        <v>421.5619155858499</v>
       </c>
       <c r="R11">
-        <v>2349.53295326178</v>
+        <v>2529.3714935151</v>
       </c>
       <c r="S11">
-        <v>0.02221026367676077</v>
+        <v>0.01735937552320359</v>
       </c>
       <c r="T11">
-        <v>0.01716863514733457</v>
+        <v>0.01293000512310367</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>45.36298</v>
       </c>
       <c r="I12">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J12">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N12">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O12">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P12">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q12">
-        <v>135.2056572550956</v>
+        <v>178.3586032728067</v>
       </c>
       <c r="R12">
-        <v>1216.85091529586</v>
+        <v>1605.22742945526</v>
       </c>
       <c r="S12">
-        <v>0.00766863889452543</v>
+        <v>0.007344577053892356</v>
       </c>
       <c r="T12">
-        <v>0.00889183927572138</v>
+        <v>0.00820583253184321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>45.36298</v>
       </c>
       <c r="I13">
-        <v>0.1837921591632454</v>
+        <v>0.1215207512070419</v>
       </c>
       <c r="J13">
-        <v>0.1995493103618015</v>
+        <v>0.1266858040147993</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N13">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O13">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P13">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q13">
-        <v>1081.469063186113</v>
+        <v>871.5198721738889</v>
       </c>
       <c r="R13">
-        <v>9733.221568675021</v>
+        <v>7843.678849565001</v>
       </c>
       <c r="S13">
-        <v>0.06133911767854265</v>
+        <v>0.03588806336069497</v>
       </c>
       <c r="T13">
-        <v>0.07112312670003665</v>
+        <v>0.04009644608112206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H14">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I14">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J14">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N14">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O14">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P14">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q14">
-        <v>229.628377468378</v>
+        <v>308.010776224659</v>
       </c>
       <c r="R14">
-        <v>1377.770264810268</v>
+        <v>1848.064657347954</v>
       </c>
       <c r="S14">
-        <v>0.01302413776531829</v>
+        <v>0.01268348617841027</v>
       </c>
       <c r="T14">
-        <v>0.01006771790986602</v>
+        <v>0.009447202812477348</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H15">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I15">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J15">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P15">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q15">
-        <v>467.8757630848186</v>
+        <v>833.6195042121241</v>
       </c>
       <c r="R15">
-        <v>4210.881867763367</v>
+        <v>7502.575537909116</v>
       </c>
       <c r="S15">
-        <v>0.02653713126684116</v>
+        <v>0.03432737513058875</v>
       </c>
       <c r="T15">
-        <v>0.0307699853010323</v>
+        <v>0.03835274509511587</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H16">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I16">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J16">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N16">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O16">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P16">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q16">
-        <v>954.0993342931368</v>
+        <v>1526.003968035434</v>
       </c>
       <c r="R16">
-        <v>8586.894008638232</v>
+        <v>13734.03571231891</v>
       </c>
       <c r="S16">
-        <v>0.05411491954361566</v>
+        <v>0.06283887360700435</v>
       </c>
       <c r="T16">
-        <v>0.06274661952643706</v>
+        <v>0.07020761978873473</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H17">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I17">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J17">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N17">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O17">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P17">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q17">
-        <v>396.250498209874</v>
+        <v>760.0430974505849</v>
       </c>
       <c r="R17">
-        <v>2377.502989259244</v>
+        <v>4560.25858470351</v>
       </c>
       <c r="S17">
-        <v>0.02247466595879292</v>
+        <v>0.03129759367405813</v>
       </c>
       <c r="T17">
-        <v>0.01737301931757215</v>
+        <v>0.02331178595713144</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H18">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I18">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J18">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N18">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O18">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P18">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q18">
-        <v>136.8152142077809</v>
+        <v>321.566584353414</v>
       </c>
       <c r="R18">
-        <v>1231.336927870028</v>
+        <v>2894.099259180726</v>
       </c>
       <c r="S18">
-        <v>0.00775993027464149</v>
+        <v>0.0132416968590419</v>
       </c>
       <c r="T18">
-        <v>0.008997692255685044</v>
+        <v>0.01479447299217138</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.30100133333333</v>
+        <v>27.261966</v>
       </c>
       <c r="H19">
-        <v>45.903004</v>
+        <v>81.785898</v>
       </c>
       <c r="I19">
-        <v>0.1859801145612367</v>
+        <v>0.2190923912649148</v>
       </c>
       <c r="J19">
-        <v>0.2019248469067731</v>
+        <v>0.2284045767099596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N19">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O19">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P19">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q19">
-        <v>1094.343421294377</v>
+        <v>1571.2820315285</v>
       </c>
       <c r="R19">
-        <v>9849.090791649396</v>
+        <v>14141.5382837565</v>
       </c>
       <c r="S19">
-        <v>0.06206932975202718</v>
+        <v>0.0647033658158114</v>
       </c>
       <c r="T19">
-        <v>0.0719698125961806</v>
+        <v>0.07229075006432886</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H20">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I20">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J20">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N20">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O20">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P20">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q20">
-        <v>117.3720639451028</v>
+        <v>91.21124255672551</v>
       </c>
       <c r="R20">
-        <v>469.488255780411</v>
+        <v>364.844970226902</v>
       </c>
       <c r="S20">
-        <v>0.006657147289347015</v>
+        <v>0.00375596123117473</v>
       </c>
       <c r="T20">
-        <v>0.003430670150108887</v>
+        <v>0.001865067012207271</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H21">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I21">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J21">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P21">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q21">
-        <v>239.149640774331</v>
+        <v>246.859774617918</v>
       </c>
       <c r="R21">
-        <v>1434.897844645986</v>
+        <v>1481.158647707508</v>
       </c>
       <c r="S21">
-        <v>0.01356416790603414</v>
+        <v>0.0101653668671907</v>
       </c>
       <c r="T21">
-        <v>0.01048516367230491</v>
+        <v>0.007571599882456355</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H22">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I22">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J22">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N22">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O22">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P22">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q22">
-        <v>487.677565417869</v>
+        <v>451.895611501213</v>
       </c>
       <c r="R22">
-        <v>2926.065392507214</v>
+        <v>2711.373669007278</v>
       </c>
       <c r="S22">
-        <v>0.02766025639811012</v>
+        <v>0.01860847796565186</v>
       </c>
       <c r="T22">
-        <v>0.02138150438428919</v>
+        <v>0.01386039003001171</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H23">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I23">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J23">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N23">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O23">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P23">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q23">
-        <v>202.5391605642157</v>
+        <v>225.0715905620325</v>
       </c>
       <c r="R23">
-        <v>810.1566422568629</v>
+        <v>900.2863622481301</v>
       </c>
       <c r="S23">
-        <v>0.01148768265988175</v>
+        <v>0.009268157572396686</v>
       </c>
       <c r="T23">
-        <v>0.00592002073594581</v>
+        <v>0.004602213358525461</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H24">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I24">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J24">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N24">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O24">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P24">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q24">
-        <v>69.93161841623849</v>
+        <v>95.22552451932302</v>
       </c>
       <c r="R24">
-        <v>419.589710497431</v>
+        <v>571.3531471159381</v>
       </c>
       <c r="S24">
-        <v>0.00396640451169928</v>
+        <v>0.003921264180678387</v>
       </c>
       <c r="T24">
-        <v>0.003066048782633737</v>
+        <v>0.002920725222946134</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.8209415</v>
+        <v>8.073087000000001</v>
       </c>
       <c r="H25">
-        <v>15.641883</v>
+        <v>16.146174</v>
       </c>
       <c r="I25">
-        <v>0.09506172599161901</v>
+        <v>0.0648798379295058</v>
       </c>
       <c r="J25">
-        <v>0.06880780242854385</v>
+        <v>0.04509163716653641</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N25">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O25">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P25">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q25">
-        <v>559.3618151125695</v>
+        <v>465.3038061182501</v>
       </c>
       <c r="R25">
-        <v>3356.170890675417</v>
+        <v>2791.822836709501</v>
       </c>
       <c r="S25">
-        <v>0.03172606722654671</v>
+        <v>0.01916061011241344</v>
       </c>
       <c r="T25">
-        <v>0.02452439470326133</v>
+        <v>0.01427164166038949</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H26">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I26">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J26">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N26">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O26">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P26">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q26">
-        <v>124.9076614394</v>
+        <v>651.1157044330799</v>
       </c>
       <c r="R26">
-        <v>749.4459686364</v>
+        <v>3906.694226598479</v>
       </c>
       <c r="S26">
-        <v>0.007084553784100609</v>
+        <v>0.02681210423527277</v>
       </c>
       <c r="T26">
-        <v>0.005476392395474305</v>
+        <v>0.0199708016374133</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H27">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I27">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J27">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>91.734342</v>
       </c>
       <c r="O27">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P27">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q27">
-        <v>254.5036813629333</v>
+        <v>1762.220002063608</v>
       </c>
       <c r="R27">
-        <v>2290.5331322664</v>
+        <v>15859.98001857247</v>
       </c>
       <c r="S27">
-        <v>0.01443502342522094</v>
+        <v>0.07256594497586438</v>
       </c>
       <c r="T27">
-        <v>0.01673750844233497</v>
+        <v>0.08107532777143621</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H28">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I28">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J28">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N28">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O28">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P28">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q28">
-        <v>518.9877572681778</v>
+        <v>3225.87787607257</v>
       </c>
       <c r="R28">
-        <v>4670.8898154136</v>
+        <v>29032.90088465313</v>
       </c>
       <c r="S28">
-        <v>0.02943611814748439</v>
+        <v>0.1328374869084541</v>
       </c>
       <c r="T28">
-        <v>0.03413138042729214</v>
+        <v>0.1484145599567243</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H29">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I29">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J29">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N29">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O29">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P29">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q29">
-        <v>215.5427113202</v>
+        <v>1606.684035090648</v>
       </c>
       <c r="R29">
-        <v>1293.2562679212</v>
+        <v>9640.104210543886</v>
       </c>
       <c r="S29">
-        <v>0.01222522232441023</v>
+        <v>0.06616117462488054</v>
       </c>
       <c r="T29">
-        <v>0.009450152629320786</v>
+        <v>0.04927967170862781</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H30">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I30">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J30">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N30">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O30">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P30">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q30">
-        <v>74.42141360937778</v>
+        <v>679.7718432445224</v>
       </c>
       <c r="R30">
-        <v>669.7927224844001</v>
+        <v>6117.946589200702</v>
       </c>
       <c r="S30">
-        <v>0.004221058190735803</v>
+        <v>0.02799212704160613</v>
       </c>
       <c r="T30">
-        <v>0.004894345857422557</v>
+        <v>0.03127459961656576</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.323066666666668</v>
+        <v>57.63010766666667</v>
       </c>
       <c r="H31">
-        <v>24.9692</v>
+        <v>172.890323</v>
       </c>
       <c r="I31">
-        <v>0.101164940675831</v>
+        <v>0.4631477457474821</v>
       </c>
       <c r="J31">
-        <v>0.1098381684864154</v>
+        <v>0.4828331290323816</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N31">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O31">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P31">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q31">
-        <v>595.2743257278668</v>
+        <v>3321.592898020862</v>
       </c>
       <c r="R31">
-        <v>5357.4689315508</v>
+        <v>29894.33608218776</v>
       </c>
       <c r="S31">
-        <v>0.033762964803879</v>
+        <v>0.1367789079614042</v>
       </c>
       <c r="T31">
-        <v>0.03914838873457068</v>
+        <v>0.1528181683416142</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H32">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I32">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J32">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N32">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O32">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P32">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q32">
-        <v>360.7423977151785</v>
+        <v>103.9307371523633</v>
       </c>
       <c r="R32">
-        <v>2164.454386291071</v>
+        <v>623.58442291418</v>
       </c>
       <c r="S32">
-        <v>0.02046070584756335</v>
+        <v>0.004279733600042974</v>
       </c>
       <c r="T32">
-        <v>0.01581621896372653</v>
+        <v>0.003187728573536982</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H33">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I33">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J33">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>91.734342</v>
       </c>
       <c r="O33">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P33">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q33">
-        <v>735.025115226794</v>
+        <v>281.2846051664133</v>
       </c>
       <c r="R33">
-        <v>6615.226037041146</v>
+        <v>2531.56144649772</v>
       </c>
       <c r="S33">
-        <v>0.04168939600246496</v>
+        <v>0.01158293695291226</v>
       </c>
       <c r="T33">
-        <v>0.04833913995095738</v>
+        <v>0.0129412000398477</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H34">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I34">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J34">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N34">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O34">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P34">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q34">
-        <v>1498.874334722673</v>
+        <v>514.9128846702243</v>
       </c>
       <c r="R34">
-        <v>13489.86901250405</v>
+        <v>4634.21596203202</v>
       </c>
       <c r="S34">
-        <v>0.08501364702198529</v>
+        <v>0.02120344793078475</v>
       </c>
       <c r="T34">
-        <v>0.09857390548172144</v>
+        <v>0.02368985191944685</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H35">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I35">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J35">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N35">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O35">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P35">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q35">
-        <v>622.5030041844406</v>
+        <v>256.45803810445</v>
       </c>
       <c r="R35">
-        <v>3735.018025106643</v>
+        <v>1538.7482286267</v>
       </c>
       <c r="S35">
-        <v>0.03530732993546997</v>
+        <v>0.01056061096793402</v>
       </c>
       <c r="T35">
-        <v>0.02729272711529803</v>
+        <v>0.007865994588110176</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H36">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I36">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J36">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N36">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O36">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P36">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q36">
-        <v>214.9344473943657</v>
+        <v>108.5048145557133</v>
       </c>
       <c r="R36">
-        <v>1934.410026549291</v>
+        <v>976.54333100142</v>
       </c>
       <c r="S36">
-        <v>0.01219072261119935</v>
+        <v>0.004468088203201576</v>
       </c>
       <c r="T36">
-        <v>0.01413522629042702</v>
+        <v>0.004992034703148167</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>24.037621</v>
+        <v>9.198886666666667</v>
       </c>
       <c r="H37">
-        <v>72.112863</v>
+        <v>27.59666</v>
       </c>
       <c r="I37">
-        <v>0.2921716958236277</v>
+        <v>0.07392739308584499</v>
       </c>
       <c r="J37">
-        <v>0.3172206076378816</v>
+        <v>0.07706956333607383</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N37">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O37">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P37">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q37">
-        <v>1719.195484782493</v>
+        <v>530.1908647894445</v>
       </c>
       <c r="R37">
-        <v>15472.75936304244</v>
+        <v>4771.717783105</v>
       </c>
       <c r="S37">
-        <v>0.09750989440494483</v>
+        <v>0.02183257543096941</v>
       </c>
       <c r="T37">
-        <v>0.1130633898357512</v>
+        <v>0.02439275351198396</v>
       </c>
     </row>
   </sheetData>
